--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/27.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/27.xlsx
@@ -479,13 +479,13 @@
         <v>-14.65855199929411</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.16359632789224</v>
+        <v>-14.1668170343913</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5160227380428833</v>
+        <v>-0.5133257236574877</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.46173460709135</v>
+        <v>-10.4660157901206</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.37443943585887</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.37029760515741</v>
+        <v>-14.37319100408543</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5078531410696463</v>
+        <v>-0.5048026345075241</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.21574332899816</v>
+        <v>-10.21973648136488</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.0412534895918</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.68628033424247</v>
+        <v>-14.68946176383301</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4295873546818078</v>
+        <v>-0.4267856018736785</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.792141870554111</v>
+        <v>-9.796488515097565</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.66653095561221</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.1442359953432</v>
+        <v>-15.1477185478991</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3705410688656233</v>
+        <v>-0.3673203623665586</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.574652535747358</v>
+        <v>-9.579195564833437</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.24211496994137</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.58864112300275</v>
+        <v>-15.59237242931265</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3537567366225304</v>
+        <v>-0.3506800454547248</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.384395190851395</v>
+        <v>-9.389121512177258</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.77094404381702</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.06251702435903</v>
+        <v>-16.06682439199396</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3736570369419541</v>
+        <v>-0.3696507922723859</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.243312535428956</v>
+        <v>-9.247999579846294</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.25941200309455</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.56594225322908</v>
+        <v>-16.57074712837199</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1551203179078625</v>
+        <v>-0.1515330269292296</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.041049548827129</v>
+        <v>-9.045710408638783</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.72852499029988</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.18697563852636</v>
+        <v>-17.19242203650851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04447183891425138</v>
+        <v>0.04851736049234473</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.064406217096769</v>
+        <v>-9.069158723028314</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.19451068207032</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.60824666706457</v>
+        <v>-17.6140596495263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1700401154692461</v>
+        <v>0.1735881295393538</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.750688456403328</v>
+        <v>-8.755244577792249</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.68079085718924</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.13696622502484</v>
+        <v>-18.14323743808603</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2959095149896005</v>
+        <v>0.2994575290597083</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.673470054242829</v>
+        <v>-8.678209467871532</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.20325547068351</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.65819698575964</v>
+        <v>-18.66461221415208</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3770032387912518</v>
+        <v>0.3810225757636617</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.171563532502418</v>
+        <v>-8.176355315342489</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.76284611084939</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.41888596546961</v>
+        <v>-19.4256285014331</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5127049577457424</v>
+        <v>0.5170123253806703</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.579961643993342</v>
+        <v>-7.585355672764133</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.359927470779605</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.24392361364666</v>
+        <v>-20.25070542651867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7517573153328188</v>
+        <v>0.7565621904757323</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.001373504508941</v>
+        <v>-7.007513794541711</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.977255527167129</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.03924173437299</v>
+        <v>-21.04618065487911</v>
       </c>
       <c r="F15" t="n">
-        <v>0.83209168556965</v>
+        <v>0.8370929452551893</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.453473722885548</v>
+        <v>-6.460255535757561</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.591010575054131</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.92797343587504</v>
+        <v>-21.93472906414137</v>
       </c>
       <c r="F16" t="n">
-        <v>1.077245056280971</v>
+        <v>1.082455792811978</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.956097137928374</v>
+        <v>-5.962394535595244</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.188320282549103</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.56780736805304</v>
+        <v>-22.57440588868527</v>
       </c>
       <c r="F17" t="n">
-        <v>1.254331544518157</v>
+        <v>1.259607742563373</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.834024506232121</v>
+        <v>-5.840531380744458</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.756330104557994</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.34830500196253</v>
+        <v>-23.35508681483455</v>
       </c>
       <c r="F18" t="n">
-        <v>1.575865410008108</v>
+        <v>1.581704577075518</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.436018499843648</v>
+        <v>-5.442499189750302</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.291832280961878</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.14669981385667</v>
+        <v>-24.15380893429973</v>
       </c>
       <c r="F19" t="n">
-        <v>1.826818670878313</v>
+        <v>1.832762576368457</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.183546531843803</v>
+        <v>-5.189739191087939</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.799556919357877</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.89831582769732</v>
+        <v>-24.90542494814038</v>
       </c>
       <c r="F20" t="n">
-        <v>2.050985080134347</v>
+        <v>2.056902801018807</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.945449912364172</v>
+        <v>-4.952388832870287</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.281659415905973</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.47753239771813</v>
+        <v>-25.48466770276687</v>
       </c>
       <c r="F21" t="n">
-        <v>2.406676763738361</v>
+        <v>2.41235882317167</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.691852006319938</v>
+        <v>-4.698319603923751</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.752898607515359</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.05401267644501</v>
+        <v>-26.06121344300796</v>
       </c>
       <c r="F22" t="n">
-        <v>2.696880748528061</v>
+        <v>2.702065300453384</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.402708498060417</v>
+        <v>-4.410040187651784</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.230695868042705</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.55525149074049</v>
+        <v>-26.5621249497324</v>
       </c>
       <c r="F23" t="n">
-        <v>2.89355332181647</v>
+        <v>2.898633135319059</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.250458108313985</v>
+        <v>-4.257514859545676</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.732086577096585</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.77067224169825</v>
+        <v>-26.77763734681005</v>
       </c>
       <c r="F24" t="n">
-        <v>3.01999878266186</v>
+        <v>3.0251571499815</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.071080467079496</v>
+        <v>-4.078228864431079</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.280223685165812</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.07536940573375</v>
+        <v>-27.08209884939439</v>
       </c>
       <c r="F25" t="n">
-        <v>3.326803807454869</v>
+        <v>3.332014543985876</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.81723380728127</v>
+        <v>-3.824159635484543</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.889221475479198</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.04333254068004</v>
+        <v>-27.05002270743216</v>
       </c>
       <c r="F26" t="n">
-        <v>3.405567101350693</v>
+        <v>3.411275345389686</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.776935699134437</v>
+        <v>-3.784110281091703</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.568477092735747</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.97324944356828</v>
+        <v>-26.97970394886925</v>
       </c>
       <c r="F27" t="n">
-        <v>3.417271620091196</v>
+        <v>3.42261327965062</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.720769719943432</v>
+        <v>-3.727184948335878</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.324793000988205</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.88665695257311</v>
+        <v>-26.89333402702239</v>
       </c>
       <c r="F28" t="n">
-        <v>3.48147627322702</v>
+        <v>3.486320425278459</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.719984181772928</v>
+        <v>-3.725888810354547</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.156243322371651</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.74278563664538</v>
+        <v>-26.74904375740372</v>
       </c>
       <c r="F29" t="n">
-        <v>3.492526176825437</v>
+        <v>3.497213221242775</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.646326885985378</v>
+        <v>-3.65195657620732</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.059112115164401</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.62744244860977</v>
+        <v>-26.63351727712833</v>
       </c>
       <c r="F30" t="n">
-        <v>3.465870248239683</v>
+        <v>3.470164523571769</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.605884762507286</v>
+        <v>-3.611488268123545</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.024707872667145</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.22364964436526</v>
+        <v>-26.22947571912982</v>
       </c>
       <c r="F31" t="n">
-        <v>3.360581948786522</v>
+        <v>3.364614378061773</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.794911430936127</v>
+        <v>-3.799925782924508</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.038379114310021</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89196924417297</v>
+        <v>-25.8975334728807</v>
       </c>
       <c r="F32" t="n">
-        <v>3.312925966442639</v>
+        <v>3.31672273426674</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.88489482836731</v>
+        <v>-3.889856811144324</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.087720957636834</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.47300246093489</v>
+        <v>-25.47856668964263</v>
       </c>
       <c r="F33" t="n">
-        <v>3.19263388793286</v>
+        <v>3.196378286545594</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.036254941520505</v>
+        <v>-4.03993387861903</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.158244126788985</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.01716775289452</v>
+        <v>-25.02254868936247</v>
       </c>
       <c r="F34" t="n">
-        <v>3.112299517696029</v>
+        <v>3.115755885646244</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.956077678917775</v>
+        <v>-3.95915437008558</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.239245582084765</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.66216996134111</v>
+        <v>-24.66723668254086</v>
       </c>
       <c r="F35" t="n">
-        <v>2.858335027172227</v>
+        <v>2.861869948939493</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.05495074997849</v>
+        <v>-4.057490656729785</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.324474417347078</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.9676102032847</v>
+        <v>-23.97270310909013</v>
       </c>
       <c r="F36" t="n">
-        <v>2.738147687085181</v>
+        <v>2.741106547527411</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.371260786634592</v>
+        <v>-4.37352575502621</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.408574900887055</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.53756733184253</v>
+        <v>-23.54238529928828</v>
       </c>
       <c r="F37" t="n">
-        <v>2.583056267622094</v>
+        <v>2.586172235698425</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.448976696303077</v>
+        <v>-4.450731064883869</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.488815680666713</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.16378208571125</v>
+        <v>-23.16835129940301</v>
       </c>
       <c r="F38" t="n">
-        <v>2.525554873541233</v>
+        <v>2.528566103194831</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.555508764526203</v>
+        <v>-4.557498794558145</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.562912730329606</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.68730081608947</v>
+        <v>-22.69172601444997</v>
       </c>
       <c r="F39" t="n">
-        <v>2.485544796056919</v>
+        <v>2.488634579527566</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.489026050695918</v>
+        <v>-4.49063640394545</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.630791998661493</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.32821822604945</v>
+        <v>-22.33249940907869</v>
       </c>
       <c r="F40" t="n">
-        <v>2.468236771700157</v>
+        <v>2.471954985707207</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.543149630643613</v>
+        <v>-4.544354122505052</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.695674880697954</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.81282663238206</v>
+        <v>-21.81702926159425</v>
       </c>
       <c r="F41" t="n">
-        <v>2.55283923266339</v>
+        <v>2.556164677585189</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.474428133027393</v>
+        <v>-4.47561953258599</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.760758367368323</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.19539363036626</v>
+        <v>-21.19924276740172</v>
       </c>
       <c r="F42" t="n">
-        <v>2.678472970732594</v>
+        <v>2.681615123414608</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.485543498140019</v>
+        <v>-4.486826543818507</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.834174085599242</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.54380281023639</v>
+        <v>-20.54758648575765</v>
       </c>
       <c r="F43" t="n">
-        <v>2.789207668167913</v>
+        <v>2.792402190061294</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.479298469684515</v>
+        <v>-4.480882638328364</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.925159858855791</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.29045365794615</v>
+        <v>-20.29402785662194</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739692578820505</v>
+        <v>2.742625254657052</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.563115392477245</v>
+        <v>-4.564503176578468</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.039100985744311</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.85245066637621</v>
+        <v>-19.85573683438948</v>
       </c>
       <c r="F45" t="n">
-        <v>2.816544396501437</v>
+        <v>2.819765103000502</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.546828567742138</v>
+        <v>-4.548006874997894</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.183747265695422</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.49978330472863</v>
+        <v>-19.50321348807316</v>
       </c>
       <c r="F46" t="n">
-        <v>2.857994627298342</v>
+        <v>2.861136779980356</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.650873098425335</v>
+        <v>-4.651292052116271</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.362366245892207</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.01861499068951</v>
+        <v>-19.02167858955448</v>
       </c>
       <c r="F47" t="n">
-        <v>2.890568276768556</v>
+        <v>2.893579506422153</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962771029023775</v>
+        <v>-4.962941228960718</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.577753611863941</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.56272791343777</v>
+        <v>-18.56568677388</v>
       </c>
       <c r="F48" t="n">
-        <v>2.856685397014169</v>
+        <v>2.859460965216615</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089229582172008</v>
+        <v>-5.089334320594741</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.834495601082337</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.09200725706635</v>
+        <v>-18.09545053271373</v>
       </c>
       <c r="F49" t="n">
-        <v>2.8855932016887</v>
+        <v>2.888316400679779</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.341649180960486</v>
+        <v>-5.341963396228688</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.131830558544271</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.60485576062857</v>
+        <v>-17.60814192864184</v>
       </c>
       <c r="F50" t="n">
-        <v>2.937019767251</v>
+        <v>2.940266658355748</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.43368806993782</v>
+        <v>-5.432967993281525</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.471846374121201</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.91459027790425</v>
+        <v>-16.91802046124878</v>
       </c>
       <c r="F51" t="n">
-        <v>2.914422452546181</v>
+        <v>2.91790500510208</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.65061443572238</v>
+        <v>-5.649868174460401</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.855087509650281</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.5388411863467</v>
+        <v>-16.54217972357135</v>
       </c>
       <c r="F52" t="n">
-        <v>2.795675265771726</v>
+        <v>2.798869787665107</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793791859599496</v>
+        <v>-5.793922782627913</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.274229155011637</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11505643566288</v>
+        <v>-16.11860444973298</v>
       </c>
       <c r="F53" t="n">
-        <v>2.864514594113521</v>
+        <v>2.867473454555751</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852798868507155</v>
+        <v>-5.85275959159863</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.72722564085143</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.83905759945645</v>
+        <v>-15.84306384412602</v>
       </c>
       <c r="F54" t="n">
-        <v>2.621835668639287</v>
+        <v>2.6246636060531</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.087570043064988</v>
+        <v>-6.087177273979735</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.205994786243494</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.5013023707456</v>
+        <v>-15.50558355377484</v>
       </c>
       <c r="F55" t="n">
-        <v>2.460198097755337</v>
+        <v>2.463130773591883</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.302061240520985</v>
+        <v>-6.301249517744798</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.698720228992275</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.09414484467076</v>
+        <v>-15.09889735060231</v>
       </c>
       <c r="F56" t="n">
-        <v>2.405262795031454</v>
+        <v>2.408195470868001</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.4981708447872</v>
+        <v>-6.498039921758783</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.197737700099825</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.55404807554103</v>
+        <v>-14.55874821226121</v>
       </c>
       <c r="F57" t="n">
-        <v>2.360722780763902</v>
+        <v>2.364126779502751</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.76524073045557</v>
+        <v>-6.765057438215786</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.689384196159715</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.30369706060155</v>
+        <v>-14.30869832028709</v>
       </c>
       <c r="F58" t="n">
-        <v>2.182327062242543</v>
+        <v>2.185861984009809</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721905208049457</v>
+        <v>-6.721826654232407</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.163091129529413</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.92768612298718</v>
+        <v>-13.9328706749125</v>
       </c>
       <c r="F59" t="n">
-        <v>2.232234920675202</v>
+        <v>2.236214980739087</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.85913872643643</v>
+        <v>-6.858903064985278</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.611788076392601</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.81450316492045</v>
+        <v>-13.82002811671966</v>
       </c>
       <c r="F60" t="n">
-        <v>2.05161351067075</v>
+        <v>2.055593570734634</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.82136743273805</v>
+        <v>-6.821380525040891</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.02504902291741</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.48626604037554</v>
+        <v>-13.49169934605486</v>
       </c>
       <c r="F61" t="n">
-        <v>1.929881278848381</v>
+        <v>1.933913708123632</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.150599572298935</v>
+        <v>-7.151083987504079</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.400220269211</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.1840956907885</v>
+        <v>-13.19009196549001</v>
       </c>
       <c r="F62" t="n">
-        <v>1.850515739021837</v>
+        <v>1.854757645142556</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.193057910414653</v>
+        <v>-7.19296626429476</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.73610602255688</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.85663101211125</v>
+        <v>-12.86267965602413</v>
       </c>
       <c r="F63" t="n">
-        <v>1.782147733582344</v>
+        <v>1.786337270491696</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.312643004570979</v>
+        <v>-7.313022681353389</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.0281285015315</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.61232864108464</v>
+        <v>-12.6187176848714</v>
       </c>
       <c r="F64" t="n">
-        <v>1.666071376587601</v>
+        <v>1.670418021131054</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.498606074134856</v>
+        <v>-7.497990735901295</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.28095791592444</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.40015478123163</v>
+        <v>-12.40667474804681</v>
       </c>
       <c r="F65" t="n">
-        <v>1.591366696572712</v>
+        <v>1.594718326100193</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730274372919198</v>
+        <v>-7.730339834433408</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.49595293590431</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.16385180724131</v>
+        <v>-12.17050269708491</v>
       </c>
       <c r="F66" t="n">
-        <v>1.522344075991132</v>
+        <v>1.525721890124297</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.852176804678511</v>
+        <v>-7.851784035593258</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.67258904299852</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.98306019729992</v>
+        <v>-11.98977654865772</v>
       </c>
       <c r="F67" t="n">
-        <v>1.570130981363432</v>
+        <v>1.574844210386453</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.815623095144411</v>
+        <v>-7.815911125806929</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.8122041963282</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.89217343097266</v>
+        <v>-11.89913853608446</v>
       </c>
       <c r="F68" t="n">
-        <v>1.433525893512862</v>
+        <v>1.437348845942646</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.829815151424842</v>
+        <v>-7.82942238233959</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.91165184232951</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.74324848614802</v>
+        <v>-11.75026596047119</v>
       </c>
       <c r="F69" t="n">
-        <v>1.32004181248078</v>
+        <v>1.324885964532219</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.902411970682213</v>
+        <v>-7.902019201596961</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.96699235818429</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.64204498518148</v>
+        <v>-11.64952069010411</v>
       </c>
       <c r="F70" t="n">
-        <v>1.367619241007613</v>
+        <v>1.372175362396534</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.844386884487683</v>
+        <v>-7.843797730859805</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.97609355957993</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.37485726878753</v>
+        <v>-11.38209731225901</v>
       </c>
       <c r="F71" t="n">
-        <v>1.306046140742975</v>
+        <v>1.310693908251788</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.70153676818161</v>
+        <v>-7.700057337960495</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.93479526663141</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.31887458183631</v>
+        <v>-11.32604916379358</v>
       </c>
       <c r="F72" t="n">
-        <v>1.358245152172937</v>
+        <v>1.362644165927757</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.70381482887607</v>
+        <v>-7.702701983134523</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.84165344977075</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.29460145236775</v>
+        <v>-11.30004785034991</v>
       </c>
       <c r="F73" t="n">
-        <v>1.331510669770132</v>
+        <v>1.335909683524952</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.588720394594456</v>
+        <v>-7.586717272259673</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.7019233921502</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.49009571840041</v>
+        <v>-11.49558139329109</v>
       </c>
       <c r="F74" t="n">
-        <v>1.378773883028764</v>
+        <v>1.383041973755166</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.474071098609461</v>
+        <v>-7.472447653057087</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.51838904963893</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.61866213230616</v>
+        <v>-11.62417399180252</v>
       </c>
       <c r="F75" t="n">
-        <v>1.310641539040421</v>
+        <v>1.314909629766824</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.343357547037669</v>
+        <v>-7.342087593662021</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.29869914990818</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.95679703779942</v>
+        <v>-11.96182448209064</v>
       </c>
       <c r="F76" t="n">
-        <v>1.336826144723873</v>
+        <v>1.340832389393442</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.148871388323827</v>
+        <v>-7.146698066052101</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.05527066415371</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.56964773382061</v>
+        <v>-12.57445260896353</v>
       </c>
       <c r="F77" t="n">
-        <v>1.310589169829054</v>
+        <v>1.314700152921356</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.97678615977218</v>
+        <v>-6.975293637248224</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.79737685657677</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.099597968248</v>
+        <v>-13.10418027424261</v>
       </c>
       <c r="F78" t="n">
-        <v>1.33839722106488</v>
+        <v>1.342665311791283</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.83874091860902</v>
+        <v>-6.838164857283984</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.53569314808493</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.59516781541302</v>
+        <v>-13.59969775219625</v>
       </c>
       <c r="F79" t="n">
-        <v>1.398202860445885</v>
+        <v>1.402366212749554</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662924383747481</v>
+        <v>-6.662819645324747</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.27997960847393</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.15342360858422</v>
+        <v>-14.15790117615609</v>
       </c>
       <c r="F80" t="n">
-        <v>1.385843726563296</v>
+        <v>1.389404832936245</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.396770959278032</v>
+        <v>-6.39615562104447</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.03487570781018</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.93786202564907</v>
+        <v>-14.9422610394039</v>
       </c>
       <c r="F81" t="n">
-        <v>1.448005980455811</v>
+        <v>1.451802748279912</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.280799340706023</v>
+        <v>-6.280524402346346</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.806726926195786</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.69225360769217</v>
+        <v>-15.69650860611574</v>
       </c>
       <c r="F82" t="n">
-        <v>1.481784121787464</v>
+        <v>1.485214305131997</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.195856479868904</v>
+        <v>-6.195502987692177</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.595464111072802</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.56090171663502</v>
+        <v>-16.56520908426994</v>
       </c>
       <c r="F83" t="n">
-        <v>1.437820168844948</v>
+        <v>1.441381275217898</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.93619683760895</v>
+        <v>-5.935620776283915</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.395567002917462</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.63172116605979</v>
+        <v>-17.63591070296914</v>
       </c>
       <c r="F84" t="n">
-        <v>1.522605922047966</v>
+        <v>1.525748074729981</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747589122871045</v>
+        <v>-5.747471292145469</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.205559343649528</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.4438498036349</v>
+        <v>-18.44797387903004</v>
       </c>
       <c r="F85" t="n">
-        <v>1.513886448355377</v>
+        <v>1.517238077882858</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.539578615321701</v>
+        <v>-5.539879738287061</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.017049993294762</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.53090370858342</v>
+        <v>-19.53539436845813</v>
       </c>
       <c r="F86" t="n">
-        <v>1.50959217302329</v>
+        <v>1.512891433339405</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242736832991246</v>
+        <v>-5.242789202202613</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.823831223557226</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.59021502381031</v>
+        <v>-20.59474496059355</v>
       </c>
       <c r="F87" t="n">
-        <v>1.534022410125951</v>
+        <v>1.536117178580628</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.971333395082264</v>
+        <v>-4.970862072179962</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.624854507047591</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.95267861133738</v>
+        <v>-21.95709071739504</v>
       </c>
       <c r="F88" t="n">
-        <v>1.585867929379187</v>
+        <v>1.588224543890697</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659906787386126</v>
+        <v>-4.659919879688968</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.417201883240869</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.42009009844372</v>
+        <v>-23.42399160469055</v>
       </c>
       <c r="F89" t="n">
-        <v>1.378721513817397</v>
+        <v>1.381523266625526</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.320593574637112</v>
+        <v>-4.320331728580277</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.202443512095511</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.90889440839344</v>
+        <v>-24.91266499161186</v>
       </c>
       <c r="F90" t="n">
-        <v>1.230438091832007</v>
+        <v>1.232833983252043</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.126748938762516</v>
+        <v>-4.126971507910825</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.984111358968584</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.56297594941711</v>
+        <v>-26.56668107112132</v>
       </c>
       <c r="F91" t="n">
-        <v>1.065658368266043</v>
+        <v>1.067805505932086</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.088179014590791</v>
+        <v>-4.08802190695669</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.763644331817666</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.26467419587614</v>
+        <v>-28.26772470243826</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9811868303312263</v>
+        <v>0.9831244911518018</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.842410305645909</v>
+        <v>-3.842109182680549</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.547596705479739</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.15821395587498</v>
+        <v>-30.16100261638027</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8582501066474186</v>
+        <v>0.8600830290452602</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.884567520796267</v>
+        <v>-3.883965274865548</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.336606155994957</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.29997068545011</v>
+        <v>-32.30237966917299</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7671407711718469</v>
+        <v>0.7688427705412713</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.922299537586122</v>
+        <v>-3.921422353295726</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.128872206411385</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.39227778719204</v>
+        <v>-34.39432018643534</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3560162773359649</v>
+        <v>0.3577575536139145</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.926253413044323</v>
+        <v>-3.925271490331193</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.921668897582413</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.41094068544925</v>
+        <v>-36.41269505403005</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07526493519799109</v>
+        <v>0.07734661134982553</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.102646009230898</v>
+        <v>-4.101886655666078</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.710422242632071</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54532644852448</v>
+        <v>-38.5468058787456</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2515582206400168</v>
+        <v>-0.2498169443620672</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.189461069374383</v>
+        <v>-4.188151839090211</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.482200591226843</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89094342564812</v>
+        <v>-40.89167659460726</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5149491692098618</v>
+        <v>-0.5128805853608691</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.396057608216821</v>
+        <v>-4.394722193326965</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.241694938068751</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31525823515339</v>
+        <v>-43.31571646575285</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4315773847137502</v>
+        <v>-0.4295349854704409</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.715562166766304</v>
+        <v>-4.714279121087815</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.970529337867855</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79971908391353</v>
+        <v>-45.79969289930785</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5756581774869456</v>
+        <v>-0.5743620395056147</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.96037513760374</v>
+        <v>-4.958725507445682</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.690794733338334</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20277199360383</v>
+        <v>-48.2027327166953</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6024581214039588</v>
+        <v>-0.6006121067032755</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.318279420388005</v>
+        <v>-5.316132282721962</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.366929005661642</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49485454440765</v>
+        <v>-50.49434394459683</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7263767678008961</v>
+        <v>-0.72466167612863</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.637090086886877</v>
+        <v>-5.635191702974827</v>
       </c>
     </row>
   </sheetData>
